--- a/RMI/RMI/media/Reporte/Eventos_Diciembre_-_Barajas.xlsx
+++ b/RMI/RMI/media/Reporte/Eventos_Diciembre_-_Barajas.xlsx
@@ -57,6 +57,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="U33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>COMPARTIDO CON DIANA Q</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V33" authorId="0" shapeId="0">
       <text>
         <r>
@@ -68,6 +82,20 @@
             <family val="2"/>
           </rPr>
           <t>COMPARTIDO CON GUACA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>COMPARTIDO CON DIANA Q.</t>
         </r>
       </text>
     </comment>
@@ -161,102 +189,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="T35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COMPARTIDO CON GUACA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COMPARTIDO CON DIANA Q</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y38" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COMPARTIDO CON GUACA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COMPARTIDO CON GUACA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y40" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COMPARTIDO CON GUACA</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -522,12 +460,35 @@
 11.    CC 34565772 SARITA GARCIA SANTA
 </t>
   </si>
+  <si>
+    <t>ACTIVIDAD FISICA</t>
+  </si>
+  <si>
+    <t>ENTRENAMIENTO DEPORTIVO</t>
+  </si>
+  <si>
+    <t>Identificar dinámica organizacional</t>
+  </si>
+  <si>
+    <t>PROMOVER LA INTERACCIÓN IDÓNEA CONSIGO MISMO, CON LOS DEMÁS Y CON LA NATURALEZA EN LOS CONTEXTOS LABORAL Y SOCIAL</t>
+  </si>
+  <si>
+    <t>07:00 a 12:45</t>
+  </si>
+  <si>
+    <t>CONCERTAR ALTERNATIVAS Y ACCIONES DE FORMACIÓN PARA EL DESARROLLO DE LAS COMPETENCIAS DEL PROGRAMA FORMACIÓN, CON BASE EN LA POLÍTICA INSTITUCIONAL.
+RECONOCER EL ROL DE LOS PARTICIPANTES EN EL PROCESO FORMATIVO, EL PAPEL DE LOS AMBIENTES DE APRENDIZAJE Y LA METODOLOGÍA DE FORMACIÓN, DE ACUERDO CON LA DINÁMICA ORGANIZACIONAL DEL SENA.
+  ASUMIR LOS DEBERES Y DERECHOS CON BASE EN LAS LEYES Y LA NORMATIVA INSTITUCIONAL EN EL MARCO DE SU PROYECTO DE VIDA</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -853,6 +814,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -964,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1975,6 +1949,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1983,7 +1983,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2198,6 +2198,36 @@
     <xf numFmtId="0" fontId="32" fillId="15" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2207,36 +2237,16 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2264,136 +2274,28 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2402,47 +2304,107 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2469,6 +2431,9 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2476,6 +2441,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,59 +2505,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,80 +2582,188 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="44" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="44" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="44" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3107,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3117,7 +3208,7 @@
     <col min="2" max="3" width="22.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="22" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
     <col min="9" max="14" width="10" style="2" customWidth="1"/>
@@ -3157,35 +3248,35 @@
       <c r="BA1" s="3"/>
     </row>
     <row r="2" spans="1:53" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="214" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
       <c r="Z2"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="5"/>
@@ -3216,39 +3307,39 @@
       <c r="BA2" s="3"/>
     </row>
     <row r="3" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="213"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="174" t="s">
+      <c r="A3" s="207"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="195" t="s">
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="175" t="s">
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175" t="s">
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="175"/>
+      <c r="Y3" s="185"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
@@ -3279,37 +3370,37 @@
       <c r="BA3" s="3"/>
     </row>
     <row r="4" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="213"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="182" t="s">
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="176" t="s">
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="203" t="s">
+      <c r="Q4" s="190"/>
+      <c r="R4" s="190"/>
+      <c r="S4" s="190"/>
+      <c r="T4" s="190"/>
+      <c r="U4" s="190"/>
+      <c r="V4" s="190"/>
+      <c r="W4" s="191"/>
+      <c r="X4" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="204"/>
+      <c r="Y4" s="198"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -3340,37 +3431,37 @@
       <c r="BA4" s="3"/>
     </row>
     <row r="5" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="213"/>
-      <c r="B5" s="173" t="s">
+      <c r="A5" s="207"/>
+      <c r="B5" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="195" t="s">
+      <c r="C5" s="214"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196"/>
-      <c r="L5" s="196"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="179" t="s">
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="205"/>
-      <c r="Y5" s="206"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="218"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="218"/>
+      <c r="U5" s="218"/>
+      <c r="V5" s="218"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="200"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -3401,35 +3492,35 @@
       <c r="BA5" s="3"/>
     </row>
     <row r="6" spans="1:53" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="213"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="182">
+      <c r="A6" s="207"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="189">
         <v>6663014</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="182">
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="189">
         <v>3102820494</v>
       </c>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="208"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="190"/>
+      <c r="T6" s="190"/>
+      <c r="U6" s="190"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="202"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -3460,31 +3551,31 @@
       <c r="BA6" s="3"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="213"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="200"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="194"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
@@ -3530,15 +3621,15 @@
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="202"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="4"/>
@@ -3570,33 +3661,33 @@
       <c r="BA8" s="3"/>
     </row>
     <row r="9" spans="1:53" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="210"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="210"/>
-      <c r="U9" s="210"/>
-      <c r="V9" s="210"/>
-      <c r="W9" s="210"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="211"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="205"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -3627,69 +3718,69 @@
       <c r="BA9" s="3"/>
     </row>
     <row r="10" spans="1:53" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="193" t="s">
+      <c r="C10" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="217" t="s">
+      <c r="D10" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="193" t="s">
+      <c r="E10" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="193" t="s">
+      <c r="F10" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="157" t="s">
+      <c r="G10" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="183" t="s">
+      <c r="H10" s="227"/>
+      <c r="I10" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="222"/>
+      <c r="N10" s="222"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="166" t="s">
+      <c r="P10" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="185" t="s">
+      <c r="Q10" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="185" t="s">
+      <c r="R10" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="193" t="s">
+      <c r="S10" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="187" t="s">
+      <c r="T10" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="188"/>
-      <c r="V10" s="188"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="189"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="179"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="136" t="s">
+      <c r="AA10" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="153" t="s">
+      <c r="AB10" s="239"/>
+      <c r="AC10" s="240"/>
+      <c r="AD10" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="154"/>
-      <c r="AG10" s="154"/>
+      <c r="AE10" s="258"/>
+      <c r="AF10" s="258"/>
+      <c r="AG10" s="258"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
@@ -3712,14 +3803,14 @@
       <c r="BA10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="229"/>
       <c r="I11" s="9" t="s">
         <v>13</v>
       </c>
@@ -3741,24 +3832,24 @@
       <c r="O11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="192"/>
+      <c r="P11" s="232"/>
+      <c r="Q11" s="224"/>
+      <c r="R11" s="224"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="181"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="182"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="156"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="242"/>
+      <c r="AC11" s="243"/>
+      <c r="AD11" s="259"/>
+      <c r="AE11" s="260"/>
+      <c r="AF11" s="260"/>
+      <c r="AG11" s="260"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
@@ -3819,9 +3910,9 @@
         <v>17</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="152"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="255"/>
+      <c r="AC12" s="256"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
@@ -3848,47 +3939,47 @@
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="A13" s="211">
         <v>1505783</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="220">
         <v>108</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="124">
         <v>25</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100" t="s">
+      <c r="H13" s="125"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="100" t="s">
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="106">
+      <c r="Q13" s="133">
         <v>102</v>
       </c>
-      <c r="R13" s="106">
+      <c r="R13" s="133">
         <v>6</v>
       </c>
-      <c r="S13" s="106">
+      <c r="S13" s="133">
         <v>108</v>
       </c>
       <c r="T13" s="86"/>
@@ -3902,14 +3993,14 @@
         <v>2</v>
       </c>
       <c r="Z13" s="87"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="125" t="s">
+      <c r="AA13" s="244"/>
+      <c r="AB13" s="245"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="AE13" s="125"/>
-      <c r="AF13" s="126"/>
+      <c r="AE13" s="261"/>
+      <c r="AF13" s="262"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
@@ -3934,24 +4025,24 @@
     </row>
     <row r="14" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
       <c r="T14" s="86">
         <v>4</v>
       </c>
@@ -3971,9 +4062,9 @@
         <v>9</v>
       </c>
       <c r="Z14" s="87"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="143"/>
+      <c r="AA14" s="244"/>
+      <c r="AB14" s="245"/>
+      <c r="AC14" s="246"/>
       <c r="AD14" s="63" t="s">
         <v>40</v>
       </c>
@@ -4007,24 +4098,24 @@
     </row>
     <row r="15" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
       <c r="T15" s="86">
         <v>11</v>
       </c>
@@ -4044,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="Z15" s="87"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="143"/>
+      <c r="AA15" s="244"/>
+      <c r="AB15" s="245"/>
+      <c r="AC15" s="246"/>
       <c r="AD15" s="64"/>
       <c r="AE15" s="25"/>
       <c r="AF15" s="26">
         <f>AD15*AE15</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="127">
+      <c r="AG15" s="149">
         <f>AF15+AF16</f>
         <v>0</v>
       </c>
@@ -4080,24 +4171,24 @@
     </row>
     <row r="16" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
       <c r="T16" s="86">
         <v>18</v>
       </c>
@@ -4117,16 +4208,16 @@
         <v>23</v>
       </c>
       <c r="Z16" s="87"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="134"/>
-      <c r="AC16" s="143"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="245"/>
+      <c r="AC16" s="246"/>
       <c r="AD16" s="64"/>
       <c r="AE16" s="25"/>
       <c r="AF16" s="26">
         <f>AD16*AE16</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="128"/>
+      <c r="AG16" s="150"/>
       <c r="AH16" s="20"/>
       <c r="AI16" s="20"/>
       <c r="AJ16" s="20"/>
@@ -4150,24 +4241,24 @@
     </row>
     <row r="17" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
       <c r="T17" s="86">
         <v>25</v>
       </c>
@@ -4187,9 +4278,9 @@
         <v>30</v>
       </c>
       <c r="Z17" s="87"/>
-      <c r="AA17" s="142"/>
-      <c r="AB17" s="134"/>
-      <c r="AC17" s="143"/>
+      <c r="AA17" s="244"/>
+      <c r="AB17" s="245"/>
+      <c r="AC17" s="246"/>
       <c r="AD17" s="65"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27">
@@ -4219,25 +4310,25 @@
       <c r="BA17" s="3"/>
     </row>
     <row r="18" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="253"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
       <c r="T18" s="88"/>
       <c r="U18" s="88"/>
       <c r="V18" s="88"/>
@@ -4245,9 +4336,9 @@
       <c r="X18" s="88"/>
       <c r="Y18" s="88"/>
       <c r="Z18" s="89"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="146"/>
+      <c r="AA18" s="247"/>
+      <c r="AB18" s="248"/>
+      <c r="AC18" s="249"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
@@ -4274,61 +4365,61 @@
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="1:73" s="92" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="258">
+      <c r="A19" s="109">
         <v>1505783</v>
       </c>
-      <c r="B19" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="259" t="s">
+      <c r="B19" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="260">
+      <c r="D19" s="118">
         <v>62</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="124">
         <v>25</v>
       </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="100" t="s">
+      <c r="H19" s="125"/>
+      <c r="I19" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="100" t="s">
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106">
-        <v>8.15</v>
-      </c>
-      <c r="S19" s="106"/>
-      <c r="T19" s="261" t="s">
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133">
+        <v>5.3</v>
+      </c>
+      <c r="S19" s="133"/>
+      <c r="T19" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="U19" s="261" t="s">
+      <c r="U19" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="V19" s="261" t="s">
+      <c r="V19" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="W19" s="261" t="s">
+      <c r="W19" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="261" t="s">
+      <c r="X19" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Y19" s="261" t="s">
+      <c r="Y19" s="100" t="s">
         <v>17</v>
       </c>
       <c r="Z19" s="87"/>
@@ -4382,24 +4473,24 @@
     </row>
     <row r="20" spans="1:73" s="92" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
       <c r="T20" s="86"/>
       <c r="U20" s="86"/>
       <c r="V20" s="86"/>
@@ -4461,25 +4552,25 @@
     </row>
     <row r="21" spans="1:73" s="92" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="262">
+      <c r="B21" s="113"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="101">
         <v>4</v>
       </c>
       <c r="U21" s="86">
@@ -4548,25 +4639,25 @@
     </row>
     <row r="22" spans="1:73" s="92" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="262">
+      <c r="B22" s="113"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="101">
         <v>11</v>
       </c>
       <c r="U22" s="86">
@@ -4635,25 +4726,25 @@
     </row>
     <row r="23" spans="1:73" s="92" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="262">
+      <c r="B23" s="113"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="86">
         <v>18</v>
       </c>
       <c r="U23" s="86">
@@ -4721,25 +4812,25 @@
       <c r="BU23" s="93"/>
     </row>
     <row r="24" spans="1:73" s="92" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="253"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
       <c r="T24" s="86">
         <v>25</v>
       </c>
@@ -4808,71 +4899,71 @@
       <c r="BU24" s="93"/>
     </row>
     <row r="25" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="258">
+      <c r="A25" s="109">
         <v>1505783</v>
       </c>
-      <c r="B25" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="259" t="s">
+      <c r="B25" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="260">
+      <c r="D25" s="118">
         <v>62</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="124">
         <v>25</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100" t="s">
+      <c r="H25" s="125"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="K25" s="100" t="s">
+      <c r="K25" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="100" t="s">
+      <c r="L25" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="100" t="s">
+      <c r="M25" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="100" t="s">
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="106">
+      <c r="Q25" s="133">
         <v>8.15</v>
       </c>
-      <c r="R25" s="106">
-        <v>48</v>
-      </c>
-      <c r="S25" s="106">
-        <v>56.15</v>
-      </c>
-      <c r="T25" s="261" t="s">
+      <c r="R25" s="133">
+        <v>42</v>
+      </c>
+      <c r="S25" s="133">
+        <v>50.15</v>
+      </c>
+      <c r="T25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="261" t="s">
+      <c r="U25" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="261" t="s">
+      <c r="V25" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="W25" s="261" t="s">
+      <c r="W25" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="X25" s="261" t="s">
+      <c r="X25" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Y25" s="261" t="s">
+      <c r="Y25" s="100" t="s">
         <v>17</v>
       </c>
       <c r="Z25" s="87"/>
@@ -4926,24 +5017,24 @@
     </row>
     <row r="26" spans="1:73" s="92" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
       <c r="T26" s="86"/>
       <c r="U26" s="86"/>
       <c r="V26" s="86"/>
@@ -5005,24 +5096,24 @@
     </row>
     <row r="27" spans="1:73" s="92" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
       <c r="T27" s="86">
         <v>4</v>
       </c>
@@ -5092,24 +5183,24 @@
     </row>
     <row r="28" spans="1:73" s="92" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
       <c r="T28" s="86">
         <v>11</v>
       </c>
@@ -5179,28 +5270,28 @@
     </row>
     <row r="29" spans="1:73" s="92" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
       <c r="T29" s="86">
         <v>18</v>
       </c>
-      <c r="U29" s="85">
+      <c r="U29" s="86">
         <v>19</v>
       </c>
       <c r="V29" s="86">
@@ -5265,25 +5356,25 @@
       <c r="BU29" s="93"/>
     </row>
     <row r="30" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
       <c r="T30" s="86">
         <v>25</v>
       </c>
@@ -5352,79 +5443,79 @@
       <c r="BU30" s="93"/>
     </row>
     <row r="31" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="241">
+      <c r="A31" s="136">
         <v>1458760</v>
       </c>
-      <c r="B31" s="170" t="s">
+      <c r="B31" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="252" t="s">
+      <c r="C31" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="256">
+      <c r="D31" s="151">
         <v>108</v>
       </c>
-      <c r="E31" s="252" t="s">
+      <c r="E31" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="252" t="s">
+      <c r="F31" s="286" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="256">
+      <c r="G31" s="151">
         <v>11</v>
       </c>
-      <c r="H31" s="256"/>
-      <c r="I31" s="170" t="s">
+      <c r="H31" s="151"/>
+      <c r="I31" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="170" t="s">
+      <c r="J31" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="170" t="s">
+      <c r="K31" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="170" t="s">
+      <c r="L31" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="170" t="s">
+      <c r="M31" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="252" t="s">
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="263">
+      <c r="Q31" s="154">
         <v>30.15</v>
       </c>
-      <c r="R31" s="256">
+      <c r="R31" s="151">
         <v>27.3</v>
       </c>
-      <c r="S31" s="256">
+      <c r="S31" s="151">
         <v>57.3</v>
       </c>
-      <c r="T31" s="261" t="s">
+      <c r="T31" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="U31" s="261" t="s">
+      <c r="U31" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="V31" s="261" t="s">
+      <c r="V31" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="W31" s="261" t="s">
+      <c r="W31" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="X31" s="261" t="s">
+      <c r="X31" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Y31" s="261" t="s">
+      <c r="Y31" s="100" t="s">
         <v>17</v>
       </c>
       <c r="Z31" s="87"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="149"/>
+      <c r="AA31" s="251"/>
+      <c r="AB31" s="252"/>
+      <c r="AC31" s="253"/>
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
       <c r="AF31" s="95"/>
@@ -5471,41 +5562,41 @@
       <c r="BU31" s="93"/>
     </row>
     <row r="32" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="241"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="264"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="266"/>
-      <c r="U32" s="266"/>
-      <c r="V32" s="266"/>
-      <c r="W32" s="266"/>
-      <c r="X32" s="268">
+      <c r="A32" s="136"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="287"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="104">
         <v>1</v>
       </c>
-      <c r="Y32" s="266">
+      <c r="Y32" s="102">
         <v>2</v>
       </c>
       <c r="Z32" s="87"/>
-      <c r="AA32" s="265" t="s">
+      <c r="AA32" s="250" t="s">
         <v>74</v>
       </c>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="143"/>
+      <c r="AB32" s="245"/>
+      <c r="AC32" s="246"/>
       <c r="AD32" s="95"/>
       <c r="AE32" s="95"/>
       <c r="AF32" s="95"/>
@@ -5552,35 +5643,35 @@
       <c r="BU32" s="93"/>
     </row>
     <row r="33" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="241"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="264"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="262">
+      <c r="A33" s="136"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="287"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="101">
         <v>4</v>
       </c>
-      <c r="U33" s="86">
+      <c r="U33" s="101">
         <v>5</v>
       </c>
-      <c r="V33" s="262">
+      <c r="V33" s="101">
         <v>6</v>
       </c>
-      <c r="W33" s="86">
+      <c r="W33" s="101">
         <v>7</v>
       </c>
       <c r="X33" s="76">
@@ -5590,9 +5681,9 @@
         <v>9</v>
       </c>
       <c r="Z33" s="87"/>
-      <c r="AA33" s="142"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="143"/>
+      <c r="AA33" s="244"/>
+      <c r="AB33" s="245"/>
+      <c r="AC33" s="246"/>
       <c r="AD33" s="95"/>
       <c r="AE33" s="95"/>
       <c r="AF33" s="95"/>
@@ -5639,47 +5730,47 @@
       <c r="BU33" s="93"/>
     </row>
     <row r="34" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="241"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="169"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="264"/>
-      <c r="R34" s="172"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="262">
+      <c r="A34" s="136"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="287"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="155"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="101">
         <v>11</v>
       </c>
-      <c r="U34" s="262">
+      <c r="U34" s="101">
         <v>12</v>
       </c>
-      <c r="V34" s="262">
+      <c r="V34" s="101">
         <v>13</v>
       </c>
-      <c r="W34" s="262">
+      <c r="W34" s="101">
         <v>14</v>
       </c>
-      <c r="X34" s="262">
+      <c r="X34" s="101">
         <v>15</v>
       </c>
       <c r="Y34" s="86">
         <v>16</v>
       </c>
       <c r="Z34" s="87"/>
-      <c r="AA34" s="142"/>
-      <c r="AB34" s="134"/>
-      <c r="AC34" s="143"/>
+      <c r="AA34" s="244"/>
+      <c r="AB34" s="245"/>
+      <c r="AC34" s="246"/>
       <c r="AD34" s="95"/>
       <c r="AE34" s="95"/>
       <c r="AF34" s="95"/>
@@ -5726,29 +5817,29 @@
       <c r="BU34" s="93"/>
     </row>
     <row r="35" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="241"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="169"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="264"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="262">
+      <c r="A35" s="136"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="287"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="86">
         <v>18</v>
       </c>
-      <c r="U35" s="262">
+      <c r="U35" s="86">
         <v>19</v>
       </c>
       <c r="V35" s="86">
@@ -5764,9 +5855,9 @@
         <v>23</v>
       </c>
       <c r="Z35" s="87"/>
-      <c r="AA35" s="142"/>
-      <c r="AB35" s="134"/>
-      <c r="AC35" s="143"/>
+      <c r="AA35" s="244"/>
+      <c r="AB35" s="245"/>
+      <c r="AC35" s="246"/>
       <c r="AD35" s="95"/>
       <c r="AE35" s="95"/>
       <c r="AF35" s="95"/>
@@ -5813,47 +5904,47 @@
       <c r="BU35" s="93"/>
     </row>
     <row r="36" spans="1:73" s="92" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="242"/>
-      <c r="B36" s="171"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="264"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="267">
+      <c r="A36" s="137"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="287"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="103">
         <v>25</v>
       </c>
-      <c r="U36" s="267">
+      <c r="U36" s="103">
         <v>26</v>
       </c>
-      <c r="V36" s="267">
+      <c r="V36" s="103">
         <v>27</v>
       </c>
-      <c r="W36" s="267">
+      <c r="W36" s="103">
         <v>28</v>
       </c>
-      <c r="X36" s="267">
+      <c r="X36" s="103">
         <v>29</v>
       </c>
-      <c r="Y36" s="267">
+      <c r="Y36" s="103">
         <v>30</v>
       </c>
       <c r="Z36" s="87"/>
-      <c r="AA36" s="144"/>
-      <c r="AB36" s="145"/>
-      <c r="AC36" s="146"/>
+      <c r="AA36" s="247"/>
+      <c r="AB36" s="248"/>
+      <c r="AC36" s="249"/>
       <c r="AD36" s="95"/>
       <c r="AE36" s="95"/>
       <c r="AF36" s="95"/>
@@ -5900,82 +5991,82 @@
       <c r="BU36" s="93"/>
     </row>
     <row r="37" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="241">
-        <v>1458760</v>
-      </c>
-      <c r="B37" s="170" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="252" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="256">
-        <v>108</v>
-      </c>
-      <c r="E37" s="252" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="256">
-        <v>11</v>
-      </c>
-      <c r="H37" s="256"/>
-      <c r="I37" s="257"/>
-      <c r="J37" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="M37" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="N37" s="257"/>
-      <c r="O37" s="257"/>
-      <c r="P37" s="252" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" s="263">
-        <v>49.3</v>
-      </c>
-      <c r="R37" s="256">
-        <v>18</v>
-      </c>
-      <c r="S37" s="256">
-        <v>67.3</v>
-      </c>
-      <c r="T37" s="261" t="s">
+      <c r="A37" s="136">
+        <v>1564299</v>
+      </c>
+      <c r="B37" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="269" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="270">
+        <v>54</v>
+      </c>
+      <c r="E37" s="271" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="283" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="272">
+        <v>30</v>
+      </c>
+      <c r="H37" s="273"/>
+      <c r="I37" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="274"/>
+      <c r="O37" s="274"/>
+      <c r="P37" s="269" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="291"/>
+      <c r="R37" s="292">
+        <v>28.45</v>
+      </c>
+      <c r="S37" s="293">
+        <v>28.45</v>
+      </c>
+      <c r="T37" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="U37" s="261" t="s">
+      <c r="U37" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="V37" s="261" t="s">
+      <c r="V37" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="W37" s="261" t="s">
+      <c r="W37" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="X37" s="261" t="s">
+      <c r="X37" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Y37" s="261" t="s">
+      <c r="Y37" s="100" t="s">
         <v>17</v>
       </c>
       <c r="Z37" s="90"/>
-      <c r="AA37" s="147"/>
-      <c r="AB37" s="148"/>
-      <c r="AC37" s="149"/>
-      <c r="AD37" s="125" t="s">
+      <c r="AA37" s="251"/>
+      <c r="AB37" s="252"/>
+      <c r="AC37" s="253"/>
+      <c r="AD37" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="AE37" s="125"/>
-      <c r="AF37" s="126"/>
+      <c r="AE37" s="261"/>
+      <c r="AF37" s="262"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="20"/>
       <c r="AI37" s="20"/>
@@ -5998,42 +6089,40 @@
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
     </row>
-    <row r="38" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="241"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="264"/>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
-      <c r="T38" s="266"/>
-      <c r="U38" s="266"/>
-      <c r="V38" s="266"/>
-      <c r="W38" s="266"/>
-      <c r="X38" s="266">
+    <row r="38" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="136"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="276"/>
+      <c r="F38" s="284"/>
+      <c r="G38" s="277"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="289"/>
+      <c r="J38" s="289"/>
+      <c r="K38" s="289"/>
+      <c r="L38" s="289"/>
+      <c r="M38" s="289"/>
+      <c r="N38" s="278"/>
+      <c r="O38" s="278"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="294"/>
+      <c r="R38" s="295"/>
+      <c r="S38" s="296"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102">
         <v>1</v>
       </c>
-      <c r="Y38" s="268">
+      <c r="Y38" s="102">
         <v>2</v>
       </c>
       <c r="Z38" s="87"/>
-      <c r="AA38" s="265" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB38" s="134"/>
-      <c r="AC38" s="143"/>
+      <c r="AA38" s="250"/>
+      <c r="AB38" s="245"/>
+      <c r="AC38" s="246"/>
       <c r="AD38" s="63" t="s">
         <v>40</v>
       </c>
@@ -6065,26 +6154,26 @@
       <c r="AZ38" s="3"/>
       <c r="BA38" s="3"/>
     </row>
-    <row r="39" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="241"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="264"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="172"/>
+    <row r="39" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="136"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="275"/>
+      <c r="E39" s="276"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="277"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="289"/>
+      <c r="J39" s="289"/>
+      <c r="K39" s="289"/>
+      <c r="L39" s="289"/>
+      <c r="M39" s="289"/>
+      <c r="N39" s="278"/>
+      <c r="O39" s="278"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="294"/>
+      <c r="R39" s="295"/>
+      <c r="S39" s="296"/>
       <c r="T39" s="86">
         <v>4</v>
       </c>
@@ -6100,20 +6189,20 @@
       <c r="X39" s="86">
         <v>8</v>
       </c>
-      <c r="Y39" s="262">
+      <c r="Y39" s="86">
         <v>9</v>
       </c>
       <c r="Z39" s="87"/>
-      <c r="AA39" s="142"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="143"/>
+      <c r="AA39" s="244"/>
+      <c r="AB39" s="245"/>
+      <c r="AC39" s="246"/>
       <c r="AD39" s="64"/>
       <c r="AE39" s="25"/>
       <c r="AF39" s="26">
         <f>AD39*AE39</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="127">
+      <c r="AG39" s="149">
         <f>AF39+AF40</f>
         <v>0</v>
       </c>
@@ -6138,55 +6227,55 @@
       <c r="AZ39" s="3"/>
       <c r="BA39" s="3"/>
     </row>
-    <row r="40" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="241"/>
-      <c r="B40" s="170"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="264"/>
-      <c r="R40" s="172"/>
-      <c r="S40" s="172"/>
-      <c r="T40" s="86">
+    <row r="40" spans="1:73" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="136"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="284"/>
+      <c r="G40" s="277"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="289"/>
+      <c r="J40" s="289"/>
+      <c r="K40" s="289"/>
+      <c r="L40" s="289"/>
+      <c r="M40" s="289"/>
+      <c r="N40" s="278"/>
+      <c r="O40" s="278"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="294"/>
+      <c r="R40" s="295"/>
+      <c r="S40" s="296"/>
+      <c r="T40" s="85">
         <v>11</v>
       </c>
-      <c r="U40" s="86">
+      <c r="U40" s="85">
         <v>12</v>
       </c>
-      <c r="V40" s="86">
+      <c r="V40" s="85">
         <v>13</v>
       </c>
-      <c r="W40" s="86">
+      <c r="W40" s="85">
         <v>14</v>
       </c>
-      <c r="X40" s="86">
+      <c r="X40" s="85">
         <v>15</v>
       </c>
-      <c r="Y40" s="262">
+      <c r="Y40" s="86">
         <v>16</v>
       </c>
       <c r="Z40" s="87"/>
-      <c r="AA40" s="142"/>
-      <c r="AB40" s="134"/>
-      <c r="AC40" s="143"/>
+      <c r="AA40" s="244"/>
+      <c r="AB40" s="245"/>
+      <c r="AC40" s="246"/>
       <c r="AD40" s="64"/>
       <c r="AE40" s="25"/>
       <c r="AF40" s="26">
         <f>AD40*AE40</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="128"/>
+      <c r="AG40" s="150"/>
       <c r="AH40" s="20"/>
       <c r="AI40" s="20"/>
       <c r="AJ40" s="20"/>
@@ -6208,26 +6297,26 @@
       <c r="AZ40" s="3"/>
       <c r="BA40" s="3"/>
     </row>
-    <row r="41" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="241"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="169"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="264"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="172"/>
+    <row r="41" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="136"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="275"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="277"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="289"/>
+      <c r="J41" s="289"/>
+      <c r="K41" s="289"/>
+      <c r="L41" s="289"/>
+      <c r="M41" s="289"/>
+      <c r="N41" s="278"/>
+      <c r="O41" s="278"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="294"/>
+      <c r="R41" s="295"/>
+      <c r="S41" s="296"/>
       <c r="T41" s="86">
         <v>18</v>
       </c>
@@ -6247,9 +6336,9 @@
         <v>23</v>
       </c>
       <c r="Z41" s="87"/>
-      <c r="AA41" s="142"/>
-      <c r="AB41" s="134"/>
-      <c r="AC41" s="143"/>
+      <c r="AA41" s="244"/>
+      <c r="AB41" s="245"/>
+      <c r="AC41" s="246"/>
       <c r="AD41" s="65"/>
       <c r="AE41" s="27"/>
       <c r="AF41" s="27">
@@ -6278,48 +6367,48 @@
       <c r="AZ41" s="3"/>
       <c r="BA41" s="3"/>
     </row>
-    <row r="42" spans="1:73" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="242"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="264"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="267">
+    <row r="42" spans="1:73" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="137"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="279"/>
+      <c r="E42" s="280"/>
+      <c r="F42" s="285"/>
+      <c r="G42" s="281"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
+      <c r="K42" s="290"/>
+      <c r="L42" s="290"/>
+      <c r="M42" s="290"/>
+      <c r="N42" s="282"/>
+      <c r="O42" s="282"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="297"/>
+      <c r="R42" s="298"/>
+      <c r="S42" s="299"/>
+      <c r="T42" s="103">
         <v>25</v>
       </c>
-      <c r="U42" s="267">
+      <c r="U42" s="103">
         <v>26</v>
       </c>
-      <c r="V42" s="267">
+      <c r="V42" s="103">
         <v>27</v>
       </c>
-      <c r="W42" s="267">
+      <c r="W42" s="103">
         <v>28</v>
       </c>
-      <c r="X42" s="267">
+      <c r="X42" s="103">
         <v>29</v>
       </c>
-      <c r="Y42" s="267">
+      <c r="Y42" s="103">
         <v>30</v>
       </c>
       <c r="Z42" s="89"/>
-      <c r="AA42" s="144"/>
-      <c r="AB42" s="145"/>
-      <c r="AC42" s="146"/>
+      <c r="AA42" s="247"/>
+      <c r="AB42" s="248"/>
+      <c r="AC42" s="249"/>
       <c r="AD42" s="30"/>
       <c r="AE42" s="30"/>
       <c r="AF42" s="30"/>
@@ -6346,23 +6435,23 @@
       <c r="BA42" s="3"/>
     </row>
     <row r="43" spans="1:73" s="35" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="236" t="s">
+      <c r="A43" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="237"/>
-      <c r="C43" s="237"/>
-      <c r="D43" s="237"/>
-      <c r="E43" s="237"/>
-      <c r="F43" s="237"/>
-      <c r="G43" s="237"/>
-      <c r="H43" s="237"/>
-      <c r="I43" s="237"/>
-      <c r="J43" s="237"/>
-      <c r="K43" s="237"/>
-      <c r="L43" s="237"/>
-      <c r="M43" s="237"/>
-      <c r="N43" s="237"/>
-      <c r="O43" s="237"/>
+      <c r="B43" s="234"/>
+      <c r="C43" s="234"/>
+      <c r="D43" s="234"/>
+      <c r="E43" s="234"/>
+      <c r="F43" s="234"/>
+      <c r="G43" s="234"/>
+      <c r="H43" s="234"/>
+      <c r="I43" s="234"/>
+      <c r="J43" s="234"/>
+      <c r="K43" s="234"/>
+      <c r="L43" s="234"/>
+      <c r="M43" s="234"/>
+      <c r="N43" s="234"/>
+      <c r="O43" s="234"/>
       <c r="P43" s="78" t="s">
         <v>45</v>
       </c>
@@ -6425,21 +6514,21 @@
       <c r="BU43" s="34"/>
     </row>
     <row r="44" spans="1:73" s="35" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A44" s="238"/>
-      <c r="B44" s="239"/>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="239"/>
-      <c r="N44" s="239"/>
-      <c r="O44" s="239"/>
+      <c r="A44" s="235"/>
+      <c r="B44" s="236"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="236"/>
+      <c r="L44" s="236"/>
+      <c r="M44" s="236"/>
+      <c r="N44" s="236"/>
+      <c r="O44" s="236"/>
       <c r="P44" s="82" t="s">
         <v>46</v>
       </c>
@@ -6456,11 +6545,11 @@
       <c r="AA44" s="83"/>
       <c r="AB44" s="83"/>
       <c r="AC44" s="83"/>
-      <c r="AD44" s="125" t="s">
+      <c r="AD44" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="AE44" s="125"/>
-      <c r="AF44" s="126"/>
+      <c r="AE44" s="261"/>
+      <c r="AF44" s="262"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
@@ -6516,16 +6605,15 @@
       <c r="J45" s="62"/>
       <c r="K45" s="62"/>
       <c r="L45" s="62"/>
-      <c r="M45" s="243"/>
-      <c r="N45" s="243"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="247" t="s">
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="Q45" s="248"/>
+      <c r="Q45" s="148"/>
       <c r="R45" s="60">
-        <f>SUM(R13:R42)</f>
-        <v>107.45</v>
+        <v>109.45</v>
       </c>
       <c r="T45" s="61"/>
       <c r="U45" s="61"/>
@@ -6597,18 +6685,18 @@
       <c r="X46" s="55"/>
       <c r="Y46" s="56"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="129" t="s">
+      <c r="AA46" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="AB46" s="129"/>
-      <c r="AC46" s="129"/>
+      <c r="AB46" s="264"/>
+      <c r="AC46" s="264"/>
       <c r="AD46" s="64"/>
       <c r="AE46" s="25"/>
       <c r="AF46" s="26">
         <f>AD46*AE46</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="127">
+      <c r="AG46" s="149">
         <f>AF46+AF47</f>
         <v>0</v>
       </c>
@@ -6634,62 +6722,62 @@
       <c r="BA46" s="3"/>
     </row>
     <row r="47" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="224" t="s">
+      <c r="A47" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="163" t="s">
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="226"/>
-      <c r="G47" s="161" t="s">
+      <c r="F47" s="163"/>
+      <c r="G47" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="233" t="s">
+      <c r="H47" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="163" t="s">
+      <c r="I47" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174"/>
       <c r="O47" s="44"/>
-      <c r="P47" s="229" t="s">
+      <c r="P47" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="230" t="s">
+      <c r="Q47" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="230" t="s">
+      <c r="R47" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="S47" s="161" t="s">
+      <c r="S47" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="T47" s="163" t="s">
+      <c r="T47" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="U47" s="164"/>
-      <c r="V47" s="164"/>
-      <c r="W47" s="164"/>
-      <c r="X47" s="164"/>
-      <c r="Y47" s="165"/>
+      <c r="U47" s="174"/>
+      <c r="V47" s="174"/>
+      <c r="W47" s="174"/>
+      <c r="X47" s="174"/>
+      <c r="Y47" s="230"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="130"/>
-      <c r="AB47" s="130"/>
-      <c r="AC47" s="130"/>
+      <c r="AA47" s="165"/>
+      <c r="AB47" s="165"/>
+      <c r="AC47" s="165"/>
       <c r="AD47" s="64"/>
       <c r="AE47" s="25"/>
       <c r="AF47" s="26">
         <f>AD47*AE47</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="128"/>
+      <c r="AG47" s="150"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
@@ -6712,14 +6800,14 @@
       <c r="BA47" s="3"/>
     </row>
     <row r="48" spans="1:73" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="227"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="234"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="173"/>
       <c r="I48" s="45" t="s">
         <v>13</v>
       </c>
@@ -6741,10 +6829,10 @@
       <c r="O48" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="231"/>
-      <c r="R48" s="240"/>
-      <c r="S48" s="162"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="169"/>
+      <c r="R48" s="237"/>
+      <c r="S48" s="108"/>
       <c r="T48" s="45" t="s">
         <v>13</v>
       </c>
@@ -6764,9 +6852,9 @@
         <v>17</v>
       </c>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="131"/>
-      <c r="AB48" s="131"/>
-      <c r="AC48" s="131"/>
+      <c r="AA48" s="265"/>
+      <c r="AB48" s="265"/>
+      <c r="AC48" s="265"/>
       <c r="AD48" s="65"/>
       <c r="AE48" s="27"/>
       <c r="AF48" s="27">
@@ -6796,25 +6884,25 @@
       <c r="BA48" s="3"/>
     </row>
     <row r="49" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="168"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="235"/>
-      <c r="I49" s="235"/>
-      <c r="J49" s="235"/>
-      <c r="K49" s="235"/>
-      <c r="L49" s="235"/>
-      <c r="M49" s="235"/>
-      <c r="N49" s="235"/>
-      <c r="O49" s="235"/>
-      <c r="P49" s="168"/>
-      <c r="Q49" s="249"/>
-      <c r="R49" s="250"/>
-      <c r="S49" s="251"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="175"/>
+      <c r="N49" s="175"/>
+      <c r="O49" s="175"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="176"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="106"/>
       <c r="T49" s="75"/>
       <c r="U49" s="75"/>
       <c r="V49" s="75">
@@ -6830,9 +6918,9 @@
         <v>4</v>
       </c>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="134"/>
-      <c r="AB49" s="134"/>
-      <c r="AC49" s="135"/>
+      <c r="AA49" s="245"/>
+      <c r="AB49" s="245"/>
+      <c r="AC49" s="268"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
@@ -6859,25 +6947,25 @@
       <c r="BA49" s="3"/>
     </row>
     <row r="50" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="168"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="235"/>
-      <c r="I50" s="235"/>
-      <c r="J50" s="235"/>
-      <c r="K50" s="235"/>
-      <c r="L50" s="235"/>
-      <c r="M50" s="235"/>
-      <c r="N50" s="235"/>
-      <c r="O50" s="235"/>
-      <c r="P50" s="168"/>
-      <c r="Q50" s="249"/>
-      <c r="R50" s="250"/>
-      <c r="S50" s="251"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="175"/>
+      <c r="N50" s="175"/>
+      <c r="O50" s="175"/>
+      <c r="P50" s="153"/>
+      <c r="Q50" s="176"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="106"/>
       <c r="T50" s="76">
         <v>6</v>
       </c>
@@ -6897,14 +6985,14 @@
         <v>11</v>
       </c>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="134"/>
-      <c r="AB50" s="134"/>
-      <c r="AC50" s="135"/>
-      <c r="AD50" s="125" t="s">
+      <c r="AA50" s="245"/>
+      <c r="AB50" s="245"/>
+      <c r="AC50" s="268"/>
+      <c r="AD50" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="AE50" s="125"/>
-      <c r="AF50" s="126"/>
+      <c r="AE50" s="261"/>
+      <c r="AF50" s="262"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
@@ -6928,25 +7016,25 @@
       <c r="BA50" s="3"/>
     </row>
     <row r="51" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="235"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="235"/>
-      <c r="L51" s="235"/>
-      <c r="M51" s="235"/>
-      <c r="N51" s="235"/>
-      <c r="O51" s="235"/>
-      <c r="P51" s="168"/>
-      <c r="Q51" s="249"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="251"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="175"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="106"/>
       <c r="T51" s="76">
         <v>13</v>
       </c>
@@ -6966,9 +7054,9 @@
         <v>18</v>
       </c>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="134"/>
-      <c r="AB51" s="134"/>
-      <c r="AC51" s="135"/>
+      <c r="AA51" s="245"/>
+      <c r="AB51" s="245"/>
+      <c r="AC51" s="268"/>
       <c r="AD51" s="63" t="s">
         <v>40</v>
       </c>
@@ -7001,25 +7089,25 @@
       <c r="BA51" s="3"/>
     </row>
     <row r="52" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="168"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="235"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="235"/>
-      <c r="K52" s="235"/>
-      <c r="L52" s="235"/>
-      <c r="M52" s="235"/>
-      <c r="N52" s="235"/>
-      <c r="O52" s="235"/>
-      <c r="P52" s="168"/>
-      <c r="Q52" s="249"/>
-      <c r="R52" s="250"/>
-      <c r="S52" s="251"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="175"/>
+      <c r="N52" s="175"/>
+      <c r="O52" s="175"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="176"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="106"/>
       <c r="T52" s="75">
         <v>20</v>
       </c>
@@ -7039,16 +7127,16 @@
         <v>25</v>
       </c>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="134"/>
-      <c r="AB52" s="134"/>
-      <c r="AC52" s="135"/>
+      <c r="AA52" s="245"/>
+      <c r="AB52" s="245"/>
+      <c r="AC52" s="268"/>
       <c r="AD52" s="64"/>
       <c r="AE52" s="25"/>
       <c r="AF52" s="26">
         <f>AD52*AE52</f>
         <v>0</v>
       </c>
-      <c r="AG52" s="127">
+      <c r="AG52" s="149">
         <f>AF52+AF53</f>
         <v>0</v>
       </c>
@@ -7074,25 +7162,25 @@
       <c r="BA52" s="3"/>
     </row>
     <row r="53" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="168"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="235"/>
-      <c r="I53" s="235"/>
-      <c r="J53" s="235"/>
-      <c r="K53" s="235"/>
-      <c r="L53" s="235"/>
-      <c r="M53" s="235"/>
-      <c r="N53" s="235"/>
-      <c r="O53" s="235"/>
-      <c r="P53" s="168"/>
-      <c r="Q53" s="249"/>
-      <c r="R53" s="250"/>
-      <c r="S53" s="251"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="175"/>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="105"/>
+      <c r="S53" s="106"/>
       <c r="T53" s="75">
         <v>27</v>
       </c>
@@ -7108,16 +7196,16 @@
       <c r="X53" s="75"/>
       <c r="Y53" s="75"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="134"/>
-      <c r="AB53" s="134"/>
-      <c r="AC53" s="135"/>
+      <c r="AA53" s="245"/>
+      <c r="AB53" s="245"/>
+      <c r="AC53" s="268"/>
       <c r="AD53" s="64"/>
       <c r="AE53" s="25"/>
       <c r="AF53" s="26">
         <f>AD53*AE53</f>
         <v>0</v>
       </c>
-      <c r="AG53" s="128"/>
+      <c r="AG53" s="150"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
@@ -7140,25 +7228,25 @@
       <c r="BA53" s="3"/>
     </row>
     <row r="54" spans="1:53" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="219"/>
-      <c r="B54" s="219"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="219"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="219"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="220"/>
-      <c r="I54" s="221" t="s">
+      <c r="A54" s="156"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="222"/>
-      <c r="K54" s="222"/>
-      <c r="L54" s="222"/>
-      <c r="M54" s="222"/>
-      <c r="N54" s="222"/>
-      <c r="O54" s="222"/>
-      <c r="P54" s="222"/>
-      <c r="Q54" s="223"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="159"/>
+      <c r="M54" s="159"/>
+      <c r="N54" s="159"/>
+      <c r="O54" s="159"/>
+      <c r="P54" s="159"/>
+      <c r="Q54" s="160"/>
       <c r="S54" s="60">
         <f>SUM(S49:S53)</f>
         <v>0</v>
@@ -7281,11 +7369,11 @@
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
-      <c r="AD56" s="125" t="s">
+      <c r="AD56" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="AE56" s="125"/>
-      <c r="AF56" s="126"/>
+      <c r="AE56" s="261"/>
+      <c r="AF56" s="262"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
@@ -7405,7 +7493,7 @@
         <f>AD58*AE58</f>
         <v>0</v>
       </c>
-      <c r="AG58" s="127">
+      <c r="AG58" s="149">
         <f>AF58+AF59</f>
         <v>0</v>
       </c>
@@ -7466,7 +7554,7 @@
         <f>AD59*AE59</f>
         <v>0</v>
       </c>
-      <c r="AG59" s="128"/>
+      <c r="AG59" s="150"/>
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
@@ -7701,12 +7789,12 @@
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
-      <c r="AD64" s="132" t="s">
+      <c r="AD64" s="266" t="s">
         <v>39</v>
       </c>
-      <c r="AE64" s="132"/>
-      <c r="AF64" s="132"/>
-      <c r="AG64" s="132"/>
+      <c r="AE64" s="266"/>
+      <c r="AF64" s="266"/>
+      <c r="AG64" s="266"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
@@ -7758,10 +7846,10 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
-      <c r="AD65" s="133"/>
-      <c r="AE65" s="133"/>
-      <c r="AF65" s="133"/>
-      <c r="AG65" s="133"/>
+      <c r="AD65" s="267"/>
+      <c r="AE65" s="267"/>
+      <c r="AF65" s="267"/>
+      <c r="AG65" s="267"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
@@ -7813,10 +7901,10 @@
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
-      <c r="AD66" s="133"/>
-      <c r="AE66" s="133"/>
-      <c r="AF66" s="133"/>
-      <c r="AG66" s="133"/>
+      <c r="AD66" s="267"/>
+      <c r="AE66" s="267"/>
+      <c r="AF66" s="267"/>
+      <c r="AG66" s="267"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
@@ -7868,11 +7956,11 @@
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
-      <c r="AD67" s="124" t="s">
+      <c r="AD67" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE67" s="125"/>
-      <c r="AF67" s="126"/>
+      <c r="AE67" s="261"/>
+      <c r="AF67" s="262"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="6"/>
       <c r="AP67" s="3"/>
@@ -7978,7 +8066,7 @@
         <f>AD69*AE69</f>
         <v>0</v>
       </c>
-      <c r="AG69" s="127">
+      <c r="AG69" s="149">
         <f>AF69+AF70</f>
         <v>0</v>
       </c>
@@ -8032,7 +8120,7 @@
         <f>AD70*AE70</f>
         <v>0</v>
       </c>
-      <c r="AG70" s="128"/>
+      <c r="AG70" s="150"/>
       <c r="AH70" s="6"/>
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
@@ -8128,11 +8216,11 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
-      <c r="AD72" s="124" t="s">
+      <c r="AD72" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE72" s="125"/>
-      <c r="AF72" s="126"/>
+      <c r="AE72" s="261"/>
+      <c r="AF72" s="262"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
@@ -8252,7 +8340,7 @@
         <f>AD74*AE74</f>
         <v>0</v>
       </c>
-      <c r="AG74" s="127">
+      <c r="AG74" s="149">
         <f>AF74+AF75</f>
         <v>0</v>
       </c>
@@ -8313,7 +8401,7 @@
         <f>AD75*AE75</f>
         <v>0</v>
       </c>
-      <c r="AG75" s="128"/>
+      <c r="AG75" s="150"/>
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
@@ -8423,11 +8511,11 @@
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
-      <c r="AD77" s="124" t="s">
+      <c r="AD77" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE77" s="125"/>
-      <c r="AF77" s="126"/>
+      <c r="AE77" s="261"/>
+      <c r="AF77" s="262"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
@@ -8549,7 +8637,7 @@
         <f>AD79*AE79</f>
         <v>0</v>
       </c>
-      <c r="AG79" s="127">
+      <c r="AG79" s="149">
         <f>AF79+AF80</f>
         <v>0</v>
       </c>
@@ -8612,7 +8700,7 @@
         <f>AD80*AE80</f>
         <v>0</v>
       </c>
-      <c r="AG80" s="128"/>
+      <c r="AG80" s="150"/>
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
@@ -8726,11 +8814,11 @@
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
-      <c r="AD82" s="124" t="s">
+      <c r="AD82" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE82" s="125"/>
-      <c r="AF82" s="126"/>
+      <c r="AE82" s="261"/>
+      <c r="AF82" s="262"/>
       <c r="AG82" s="19"/>
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
@@ -8854,7 +8942,7 @@
         <f>AD84*AE84</f>
         <v>0</v>
       </c>
-      <c r="AG84" s="127">
+      <c r="AG84" s="149">
         <f>AF84+AF85</f>
         <v>0</v>
       </c>
@@ -8917,7 +9005,7 @@
         <f>AD85*AE85</f>
         <v>0</v>
       </c>
-      <c r="AG85" s="128"/>
+      <c r="AG85" s="150"/>
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
@@ -9027,11 +9115,11 @@
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
       <c r="AC87" s="6"/>
-      <c r="AD87" s="124" t="s">
+      <c r="AD87" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE87" s="125"/>
-      <c r="AF87" s="126"/>
+      <c r="AE87" s="261"/>
+      <c r="AF87" s="262"/>
       <c r="AG87" s="19"/>
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
@@ -9151,7 +9239,7 @@
         <f>AD89*AE89</f>
         <v>0</v>
       </c>
-      <c r="AG89" s="127">
+      <c r="AG89" s="149">
         <f>AF89+AF90</f>
         <v>0</v>
       </c>
@@ -9212,7 +9300,7 @@
         <f>AD90*AE90</f>
         <v>0</v>
       </c>
-      <c r="AG90" s="128"/>
+      <c r="AG90" s="150"/>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
@@ -9322,11 +9410,11 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
-      <c r="AD92" s="124" t="s">
+      <c r="AD92" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AE92" s="125"/>
-      <c r="AF92" s="126"/>
+      <c r="AE92" s="261"/>
+      <c r="AF92" s="262"/>
       <c r="AG92" s="19"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
@@ -9446,7 +9534,7 @@
         <f>AD94*AE94</f>
         <v>0</v>
       </c>
-      <c r="AG94" s="127">
+      <c r="AG94" s="149">
         <f>AF94+AF95</f>
         <v>0</v>
       </c>
@@ -9507,7 +9595,7 @@
         <f>AD95*AE95</f>
         <v>0</v>
       </c>
-      <c r="AG95" s="128"/>
+      <c r="AG95" s="150"/>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
@@ -31532,6 +31620,166 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="184">
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="S19:S24"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="G19:H24"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="AD92:AF92"/>
+    <mergeCell ref="AG94:AG95"/>
+    <mergeCell ref="AA46:AC48"/>
+    <mergeCell ref="AD64:AG66"/>
+    <mergeCell ref="AG79:AG80"/>
+    <mergeCell ref="AA49:AC53"/>
+    <mergeCell ref="AD82:AF82"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AD87:AF87"/>
+    <mergeCell ref="AG89:AG90"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG69:AG70"/>
+    <mergeCell ref="AD72:AF72"/>
+    <mergeCell ref="AG74:AG75"/>
+    <mergeCell ref="AD77:AF77"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AA10:AC11"/>
+    <mergeCell ref="AA13:AC18"/>
+    <mergeCell ref="AA38:AC42"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD10:AG11"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AA32:AC36"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="G37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="O37:O42"/>
+    <mergeCell ref="P37:P42"/>
+    <mergeCell ref="Q37:Q42"/>
+    <mergeCell ref="R37:R42"/>
+    <mergeCell ref="S37:S42"/>
+    <mergeCell ref="A43:O44"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="P4:W4"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="P13:P18"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G13:H18"/>
+    <mergeCell ref="Q13:Q18"/>
+    <mergeCell ref="R13:R18"/>
+    <mergeCell ref="S13:S18"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="T10:Y11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:Y7"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="X4:Y6"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:Y2"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="I54:Q54"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="A49:D53"/>
+    <mergeCell ref="E49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="M49:M53"/>
+    <mergeCell ref="N49:N53"/>
+    <mergeCell ref="O49:O53"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="Q49:Q53"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AG46:AG47"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:H36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="N31:N36"/>
+    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="R31:R36"/>
+    <mergeCell ref="S31:S36"/>
     <mergeCell ref="R49:R53"/>
     <mergeCell ref="S49:S53"/>
     <mergeCell ref="S47:S48"/>
@@ -31556,166 +31804,6 @@
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="C31:C36"/>
-    <mergeCell ref="L37:L42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="AG46:AG47"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="G31:H36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="N31:N36"/>
-    <mergeCell ref="O31:O36"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="Q31:Q36"/>
-    <mergeCell ref="R31:R36"/>
-    <mergeCell ref="S31:S36"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="I54:Q54"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="A49:D53"/>
-    <mergeCell ref="E49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="M49:M53"/>
-    <mergeCell ref="N49:N53"/>
-    <mergeCell ref="O49:O53"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="Q49:Q53"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="T10:Y11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:Y7"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="X4:Y6"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:Y2"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D3:F7"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="P13:P18"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G13:H18"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="Q13:Q18"/>
-    <mergeCell ref="R13:R18"/>
-    <mergeCell ref="S13:S18"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="G37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="O37:O42"/>
-    <mergeCell ref="P37:P42"/>
-    <mergeCell ref="Q37:Q42"/>
-    <mergeCell ref="R37:R42"/>
-    <mergeCell ref="S37:S42"/>
-    <mergeCell ref="A43:O44"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="AA10:AC11"/>
-    <mergeCell ref="AA13:AC18"/>
-    <mergeCell ref="AA38:AC42"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD10:AG11"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AA32:AC36"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD92:AF92"/>
-    <mergeCell ref="AG94:AG95"/>
-    <mergeCell ref="AA46:AC48"/>
-    <mergeCell ref="AD64:AG66"/>
-    <mergeCell ref="AG79:AG80"/>
-    <mergeCell ref="AA49:AC53"/>
-    <mergeCell ref="AD82:AF82"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="AD87:AF87"/>
-    <mergeCell ref="AG89:AG90"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG69:AG70"/>
-    <mergeCell ref="AD72:AF72"/>
-    <mergeCell ref="AG74:AG75"/>
-    <mergeCell ref="AD77:AF77"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="Q19:Q24"/>
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="G19:H24"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F85">
